--- a/biology/Zoologie/Algoasaurus/Algoasaurus.xlsx
+++ b/biology/Zoologie/Algoasaurus/Algoasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Algoasaurus (« reptile d'Algoa ») a été découvert en Afrique du Sud dans la formation de Kirkwood[1] en 1903. C'était un petit dinosaure sauropode apparenté à l'Apatosaurus et à l'Argentinosaurus.  Il vivait au cours du Jurassique supérieur  (Tithonien (150,8 à 145,5 millions d’années)) au Crétacé inférieur (Valanginien (140,2 à 136,4 millions d’années).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algoasaurus (« reptile d'Algoa ») a été découvert en Afrique du Sud dans la formation de Kirkwood en 1903. C'était un petit dinosaure sauropode apparenté à l'Apatosaurus et à l'Argentinosaurus.  Il vivait au cours du Jurassique supérieur  (Tithonien (150,8 à 145,5 millions d’années)) au Crétacé inférieur (Valanginien (140,2 à 136,4 millions d’années).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son nom signifie Reptile d'Algoa
 Époque :  Jurassique Crétacé (- 150 M.A. à - 130 M.A.)
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom signifie Reptile de la Baie d'Algoa.
 </t>
@@ -576,7 +592,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il avait une petite tête au bout d'un long cou, un corps massif et une longue queue. C’était
 un neosauropode ; il a souvent été assigné aux Titanosauridae, mais est actuellement considéré comme un
@@ -609,7 +627,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce type, A. bauri, a été nommé par Robert Broom en 1904 d'après une vertèbre dorsale, un fémur et une phalange. Les fossiles ont été découverts en 1903 dans une carrière par des ouvriers qui ne les reconnurent pas comme des spécimens de dinosaure, et de nombreux échantillons furent réduits en poussière et transformés en briques.
 </t>
@@ -640,7 +660,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liste des dinosaures
 Formation de Kirkwood</t>
